--- a/Week 12 - Final Deliverables/Presentation/Submission/Burndownchart.xlsx
+++ b/Week 12 - Final Deliverables/Presentation/Submission/Burndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_____Business_Application_Development\___Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x15015556\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1701,7 @@
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="10" width="6.28515625" style="1"/>
-    <col min="11" max="11" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
